--- a/接口测试/接口测试用例 - 会话等（万宜萱）.xlsx
+++ b/接口测试/接口测试用例 - 会话等（万宜萱）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E8446E-8849-4EA5-B0B9-79F772AFDA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE100AE0-5A30-4509-92E0-3D31F954A164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会话相关接口" sheetId="6" r:id="rId1"/>
@@ -13,12 +13,15 @@
     <sheet name="消息相关接口" sheetId="8" r:id="rId3"/>
     <sheet name="配置相关接口" sheetId="9" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">会话相关接口!$J$1:$J$158</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="395">
   <si>
     <t>预置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,15 +99,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PSY_Conversation_API_CreateSession_TC003</t>
-  </si>
-  <si>
-    <t>PSY_Conversation_API_CreateSession_TC005</t>
-  </si>
-  <si>
-    <t>PSY_Conversation_API_CreateSession_TC006</t>
-  </si>
-  <si>
     <t>咨询师id为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,9 +149,6 @@
   </si>
   <si>
     <t>PSY_Conversation_API_RequestSupervisor_TC002</t>
-  </si>
-  <si>
-    <t>PSY_Conversation_API_RequestSupervisor_TC003</t>
   </si>
   <si>
     <t>PSY_Conversation_API_RequestSupervisor_TC004</t>
@@ -570,9 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PSY_Conversation_API_CreateSession_TC008</t>
-  </si>
-  <si>
     <t>{
     "code": 0,
     "message": "OK",
@@ -677,13 +665,6 @@
   </si>
   <si>
     <t>{
-    "code": -3,
-    "result": null
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "code": -1,
     "message": "会话未找到：ff8081818c5df531018ckkkaa",
     "result": null
@@ -821,18 +802,6 @@
   </si>
   <si>
     <t>PSY_Conversation_API_RequestSupervisor_TC022</t>
-  </si>
-  <si>
-    <t>重复结束会话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报错信息有误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咨询师不在线依然能发起会话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>督导id为空，输入不和法的会话id（不存在的会话id）</t>
@@ -1652,18 +1621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "code": -3,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": -3
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺陷：今日无排班的咨询师依然能发起会话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1696,14 +1653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "code": -3,
-    "message": "session not find",
-    "result": null
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺陷：系统无法处理会话id不存在的情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1801,19 +1750,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PSY_Conversation_API_Record_TC009</t>
-  </si>
-  <si>
-    <t>PSY_Conversation_API_Record_TC010</t>
-  </si>
-  <si>
-    <t>PSY_Conversation_API_Record_TC011</t>
-  </si>
-  <si>
     <t>PSY_Conversation_API_Record_TC012</t>
-  </si>
-  <si>
-    <t>PSY_Conversation_API_Record_TC013</t>
   </si>
   <si>
     <t>PSY_Conversation_API_Record_TC014</t>
@@ -3082,12 +3019,6 @@
     "count": 4,
     "next": null
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": -1
- }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6032,12 +5963,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PSY_Conversation_API_DeleteSession_TC002</t>
-  </si>
-  <si>
-    <t>PSY_Conversation_API_DeleteSession_TC003</t>
-  </si>
-  <si>
     <t>PSY_Conversation_API_DeleteSession_TC004</t>
   </si>
   <si>
@@ -6062,16 +5987,6 @@
     "code": 0,
     "message": "OK",
     "result": "eJw1jlELgjAAhP-LniPn1nATejBDMoWChLI3ZbOGqHOKltF-z7Qe7*67414gCk9L8VBSC2CbhBAEIVxMbic0sAFaQjDrhueJUpKP3ApCQinFeE4kF2UrMzkVqsEjmqRlXyX52Y88xC59iNysetbOf0neRnBgbK-N9pAzYyO2VuyEx13Jg7iJuqvhK7eAdUeCFN1xvP4VW1l8b1oQUYtiar0-NB04qQ__"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "timestamp": "2023-12-18T05:49:25.792+00:00",
-    "status": 403,
-    "error": "Forbidden",
-    "message": "",
-    "path": "/conversation/batchexport"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6166,18 +6081,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PSY_Evaluate_API_AddEvaluate_TC003</t>
-  </si>
-  <si>
-    <t>PSY_Evaluate_API_AddEvaluate_TC004</t>
-  </si>
-  <si>
-    <t>PSY_Evaluate_API_AddEvaluate_TC005</t>
-  </si>
-  <si>
-    <t>PSY_Evaluate_API_AddEvaluate_TC006</t>
-  </si>
-  <si>
     <t>{
     "code": 0,
     "message": "OK",
@@ -6276,9 +6179,6 @@
   </si>
   <si>
     <t>PSY_Evaluate_API_AddEvaluate_TC007</t>
-  </si>
-  <si>
-    <t>PSY_Evaluate_API_AddEvaluate_TC008</t>
   </si>
   <si>
     <t>PSY_Evaluate_API_AddEvaluate_TC009</t>
@@ -6427,9 +6327,6 @@
     <t>PSY_Message_API_Web_TC004</t>
   </si>
   <si>
-    <t>PSY_Message_API_Web_TC005</t>
-  </si>
-  <si>
     <t>PSY_Message_API_Web_TC006</t>
   </si>
   <si>
@@ -6455,12 +6352,6 @@
   <si>
     <t>size非法（size小于0）</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSY_Message_API_Web_TC007</t>
-  </si>
-  <si>
-    <t>PSY_Message_API_Web_TC008</t>
   </si>
   <si>
     <t>{
@@ -6763,10 +6654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这个算缺陷吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺陷：小于0的页码会导致服务器内部错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6822,10 +6709,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>算缺陷吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>访客在小程序端登录后，使用抓包工具抓到对应的Cookie，然后将测试用例导入postman，点击Send and download后，查看下载的文件，判断是否符合预期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6861,14 +6744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "code": -3,
-    "message": "会话id不存在",
-    "result": null
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺陷：会话id为空会导致服务器内部错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6881,30 +6756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "code": -3,
-    "message": "非法的评价对象类型",
-    "result": null
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": -3,
-    "message": 评价对象类型为空",
-    "result": null
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": -3,
-    "message": "非法的评分",
-    "result": null
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>访客在小程序端登录后，使用抓包工具抓到对应的Cookie，开启一段会话，然后结束该会话，接下来将测试用例导入postman，点击Send后，利用测试断言Tests判断结果是否符合预期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6918,14 +6769,6 @@
   </si>
   <si>
     <t>访客在小程序端已登录，并存在一些历史会话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": -3,
-    "message": "page非法",
-    "result": null
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6958,6 +6801,425 @@
     "error": "Forbidden",
     "message": "",
     "path": "/config"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷：重复结束会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_DeleteSession_TC005</t>
+  </si>
+  <si>
+    <t>重复删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "重复结束会话"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2023-12-19T05:54:04.864+00:00",
+    "status": 500,
+    "error": "Internal Server Error",
+    "message": "",
+    "path": "/conversation/aa8081818c5df531018c7b9f2a810111"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷：可以重复删除一个会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷：输入非法的会话id会导致服务器内部错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2023-12-19T05:56:00.600+00:00",
+    "status": 405,
+    "error": "Method Not Allowed",
+    "message": "",
+    "path": "/conversation/"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 405,
+    "error": "Method Not Allowed",
+    "message": "",
+    "path": "/conversation/end/"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 403,
+    "error": "Forbidden",
+    "message": "",
+    "path": "/conversation/current"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 403,
+    "error": "Forbidden",
+    "message": "",
+    "path": "/conversation/7statistics"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 403,
+    "error": "Forbidden",
+    "message": "",
+    "path": "/conversation/ratedranking"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 403,
+    "error": "Forbidden",
+    "message": "",
+    "path": "/conversation/numberranking"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 403,
+    "error": "Forbidden",
+    "message": "",
+    "path": "/conversation/todaychange"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 405,
+    "error": "Method Not Allowed",
+    "message": "",
+    "path": "/conversation/export/"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 403,
+    "error": "Forbidden",
+    "message": "",
+    "path": "/conversation/export/"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 405,
+    "error": "Method Not Allowed",
+    "message": "",
+    "path": "/conversation/"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2023-12-19T05:58:49.834+00:00",
+    "status": 403,
+    "error": "Forbidden",
+    "message": "",
+    "path": "/conversation/ff8081818c5df531018c7b9f2a810111"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{    "status": 403,
+    "error": "Forbidden",
+    "message": "",
+    "path": "/conversation/ff8081818c5df531018c7b9f2a810111"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 403,
+    "error": "Forbidden",
+    "message": "",
+    "path": "/im/sign"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 403,
+    "error": "Forbidden",
+    "message": "",
+    "path": "/config"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_CreateSession_TC003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷：咨询师不在线依然能发起会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_CreateSession_TC006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_CreateSession_TC005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话正在进行中时，请求另一个会话，报错信息有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_CreateSession_TC008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_RequestSupervisor_TC003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "会话id不存在"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_Record_TC009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_Record_TC010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_Record_TC011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_Record_TC013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷：会话id不合法依然能下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_DeleteSession_TC002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Conversation_API_DeleteSession_TC003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Evaluate_API_AddEvaluate_TC003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "会话id不存在",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Evaluate_API_AddEvaluate_TC004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Evaluate_API_AddEvaluate_TC005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "非法的评价对象类型",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Evaluate_API_AddEvaluate_TC006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": 评价对象类型为空",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Evaluate_API_AddEvaluate_TC008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 400,
+    "error": "Bad Request",
+    "message": "",
+    "path": "/message/conversation/web"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Message_API_Web_TC005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Message_API_Web_TC007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY_Message_API_Web_TC008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code": -1,
+"message": "该咨询师今日无排班",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code": -1,
+"message": "该咨询师目前不在线",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "该会话已经结束，请勿重复结束",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "该督导未与当前咨询师绑定",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "该督导当天没有排班",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "该督导当前不在线",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "找不到对应的会话id",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "该会话已经结束",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "该会话已请求督导",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "该会话已经请求过督导",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "排序依据非法",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "顺序非法",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "页码值非法",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "size值不合法",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "非法的评分",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": -1,
+    "message": "page非法",
+    "result": null
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7134,7 +7396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7220,11 +7482,17 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7232,23 +7500,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7564,10 +7823,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA82B63-2986-48A8-89A5-D2A04611EB26}">
-  <dimension ref="A1:J157"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7586,44 +7848,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="408" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7639,19 +7901,19 @@
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -7664,1904 +7926,1940 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>352</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>354</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>100</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" s="5" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>64</v>
+        <v>357</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>99</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>68</v>
+        <v>339</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>75</v>
+        <v>339</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
-        <v>36</v>
+        <v>358</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>132</v>
+        <v>382</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>132</v>
+        <v>383</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>132</v>
+        <v>384</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="10" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" s="10" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>141</v>
+        <v>385</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="2:10" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:10" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="I30" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="C31" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="C33" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="C34" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="C35" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="2:10" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="C36" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="I36" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="2:10" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C37" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>184</v>
+        <v>387</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="2:10" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>184</v>
+        <v>388</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="2:10" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="2:10" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C40" s="11" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="2:10" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C41" s="11" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="2:10" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C42" s="11" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="2:10" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C43" s="11" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="2:10" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C44" s="11" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="2:10" s="12" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="2:10" s="12" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="C46" s="11" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="2:10" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C47" s="11" t="s">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="2:10" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C48" s="11" t="s">
-        <v>169</v>
+        <v>361</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="12" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="C49" s="11" t="s">
-        <v>170</v>
+        <v>362</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" s="12" customFormat="1" ht="144" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" s="12" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="11" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>323</v>
+        <v>181</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J50" s="36" t="s">
-        <v>324</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="2:10" s="12" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="C51" s="11" t="s">
-        <v>172</v>
+        <v>363</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" s="12" customFormat="1" ht="144" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" s="12" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="11" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="J52" s="36" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" spans="2:10" s="12" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="11" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="2:10" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="C54" s="11" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="2:10" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C55" s="11" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="2:10" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C56" s="11" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="2:10" s="15" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="J57" s="14"/>
     </row>
     <row r="58" spans="2:10" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="C58" s="14" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="G58" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="H58" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="H58" s="14" t="s">
-        <v>224</v>
-      </c>
       <c r="I58" s="14" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="J58" s="14"/>
     </row>
     <row r="59" spans="2:10" s="18" customFormat="1" ht="156" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J59" s="17"/>
     </row>
     <row r="60" spans="2:10" s="18" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
       <c r="C60" s="17" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="E60" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="I60" s="17" t="s">
         <v>210</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="J60" s="17"/>
     </row>
     <row r="61" spans="2:10" s="6" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B61" s="19" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10" s="6" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="C62" s="5" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>240</v>
+        <v>343</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10" s="21" customFormat="1" ht="156" x14ac:dyDescent="0.25">
       <c r="B63" s="22" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="J63" s="23"/>
     </row>
     <row r="64" spans="2:10" s="21" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="B64" s="22"/>
       <c r="C64" s="23" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="J64" s="23"/>
     </row>
     <row r="65" spans="2:10" s="7" customFormat="1" ht="360" x14ac:dyDescent="0.25">
       <c r="B65" s="24" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="2:10" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="B66" s="24"/>
       <c r="C66" s="8" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="2:10" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B67" s="20" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="J67" s="9"/>
     </row>
     <row r="68" spans="2:10" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="C68" s="9" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>338</v>
+        <v>227</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="2:10" s="10" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="C69" s="9" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="J69" s="9"/>
     </row>
     <row r="70" spans="2:10" s="10" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="C70" s="9" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>258</v>
+        <v>346</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="J70" s="9"/>
     </row>
     <row r="71" spans="2:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="25" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="2:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="C72" s="11" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="J72" s="36" t="s">
-        <v>338</v>
+        <v>308</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="2:10" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="C73" s="11" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="2:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="J74" s="14"/>
     </row>
-    <row r="75" spans="2:10" s="15" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="13"/>
       <c r="C75" s="14" t="s">
-        <v>253</v>
+        <v>365</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-    </row>
-    <row r="76" spans="2:10" s="15" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" s="15" customFormat="1" ht="156" x14ac:dyDescent="0.25">
       <c r="B76" s="13"/>
       <c r="C76" s="14" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-    </row>
-    <row r="77" spans="2:10" s="15" customFormat="1" ht="144" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>333</v>
+        <v>16</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>334</v>
+        <v>147</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="H77" s="14"/>
+        <v>298</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>347</v>
+      </c>
       <c r="I77" s="14" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="J77" s="14"/>
     </row>
-    <row r="78" spans="2:10" s="18" customFormat="1" ht="192" x14ac:dyDescent="0.25">
-      <c r="B78" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D78" s="17" t="s">
+    <row r="78" spans="2:10" s="15" customFormat="1" ht="156" x14ac:dyDescent="0.25">
+      <c r="B78" s="13"/>
+      <c r="C78" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="J78" s="14"/>
+    </row>
+    <row r="79" spans="2:10" s="18" customFormat="1" ht="192" x14ac:dyDescent="0.25">
+      <c r="B79" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="I78" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="J78" s="17"/>
-    </row>
-    <row r="79" spans="2:10" s="18" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="C79" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>333</v>
-      </c>
       <c r="E79" s="17" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>334</v>
+        <v>147</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="J79" s="17"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+    <row r="80" spans="2:10" s="18" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="C80" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="J80" s="17"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
@@ -10226,6 +10524,8 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
@@ -10248,7 +10548,15 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
+    <row r="158" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="J1:J158" xr:uid="{2BA82B63-2986-48A8-89A5-D2A04611EB26}"/>
   <mergeCells count="9">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -10262,7 +10570,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10270,8 +10578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2543D449-C600-40E0-8459-6F4FB995480B}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="73" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="C11" zoomScale="106" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10289,277 +10597,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:10" s="21" customFormat="1" ht="285.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="21" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="21" customFormat="1" ht="156" x14ac:dyDescent="0.25">
       <c r="C5" s="23" t="s">
-        <v>275</v>
+        <v>367</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="21" customFormat="1" ht="156" x14ac:dyDescent="0.25">
       <c r="C6" s="23" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="21" customFormat="1" ht="348" x14ac:dyDescent="0.25">
       <c r="C7" s="23" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="21" customFormat="1" ht="336" x14ac:dyDescent="0.25">
       <c r="C8" s="23" t="s">
-        <v>278</v>
+        <v>372</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="21" customFormat="1" ht="336" x14ac:dyDescent="0.25">
       <c r="C9" s="23" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="21" customFormat="1" ht="348" x14ac:dyDescent="0.25">
       <c r="C10" s="23" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="21" customFormat="1" ht="348" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11835,8 +12143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC695E0-51A4-4884-95D4-78243D10AA65}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="87" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="F13" zoomScale="87" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11854,273 +12162,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="108" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="168" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="156" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>338</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="168" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>362</v>
-      </c>
       <c r="I10" s="8" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="156" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>338</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
@@ -13395,8 +13699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E790D05D-559F-43F3-AD4F-4120C52D8CCF}">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -13414,95 +13718,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">

--- a/接口测试/接口测试用例 - 会话等（万宜萱）.xlsx
+++ b/接口测试/接口测试用例 - 会话等（万宜萱）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE100AE0-5A30-4509-92E0-3D31F954A164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6D1081-A16D-4DCB-B582-ED600F730FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会话相关接口" sheetId="6" r:id="rId1"/>
@@ -7828,8 +7828,8 @@
   </sheetPr>
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="B67" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10578,8 +10578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2543D449-C600-40E0-8459-6F4FB995480B}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" zoomScale="106" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A10" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -12143,8 +12143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC695E0-51A4-4884-95D4-78243D10AA65}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScale="87" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -13699,8 +13699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E790D05D-559F-43F3-AD4F-4120C52D8CCF}">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
